--- a/s2cDNASample/s2cDNASample_1476.xlsx
+++ b/s2cDNASample/s2cDNASample_1476.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/s2cDNASample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1208E1EB-AE94-E14E-BA61-F3F6F069BC91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6704EB-B095-054E-9D9C-93B9A3F55D08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -61,28 +61,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,7 +78,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -101,36 +86,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" activeCellId="1" sqref="B3:B7 E2:E7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -456,30 +417,30 @@
     <col min="1" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -498,11 +459,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -521,11 +482,11 @@
       <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -544,11 +505,11 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -567,11 +528,11 @@
       <c r="F5">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -590,11 +551,11 @@
       <c r="F6">
         <v>5</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -613,7 +574,7 @@
       <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" t="s">
         <v>8</v>
       </c>
     </row>
